--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E45205-CAE4-4EE1-8C82-33DCE48FC721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47ACC4D-3996-4D6A-8FCB-C00257419DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Review ID</t>
   </si>
@@ -308,6 +308,30 @@
   </si>
   <si>
     <t>No gaps</t>
+  </si>
+  <si>
+    <t>Rev-005</t>
+  </si>
+  <si>
+    <t>CRS_TravelAdvisor_webapplication</t>
+  </si>
+  <si>
+    <t>mohsen</t>
+  </si>
+  <si>
+    <t>Rev-006</t>
+  </si>
+  <si>
+    <t>SRS_TravelAdvisor_webapplication</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cconfimmation password is missed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">make sure that the comfirmation password is the same password in password field and if its different a error message is display </t>
   </si>
 </sst>
 </file>
@@ -720,7 +744,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -731,7 +755,7 @@
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.9">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.9">
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -829,7 +853,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -841,7 +865,7 @@
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.9">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -929,7 +953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -950,43 +974,43 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" ht="15">
+    <row r="17" spans="2:2">
       <c r="B17" s="5"/>
     </row>
   </sheetData>
@@ -1004,20 +1028,20 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.15">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1071,7 @@
       </c>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="30.75">
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1124,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30.75">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1126,7 +1150,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30.75">
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1149,8 +1173,49 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15"/>
-    <row r="7" spans="1:10" ht="30.75" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45752</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13">
+        <v>45767</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="8" spans="1:10">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47ACC4D-3996-4D6A-8FCB-C00257419DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04412DB-B555-43B1-8DB9-048C8D6C6B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
     <sheet name="CRS-REV" sheetId="3" r:id="rId2"/>
     <sheet name="PMP_REV" sheetId="7" r:id="rId3"/>
+    <sheet name="SRS_REV" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
   <si>
     <t>Review ID</t>
   </si>
@@ -319,9 +320,6 @@
     <t>mohsen</t>
   </si>
   <si>
-    <t>Rev-006</t>
-  </si>
-  <si>
     <t>SRS_TravelAdvisor_webapplication</t>
   </si>
   <si>
@@ -331,7 +329,11 @@
     <t xml:space="preserve">cconfimmation password is missed </t>
   </si>
   <si>
-    <t xml:space="preserve">make sure that the comfirmation password is the same password in password field and if its different a error message is display </t>
+    <t>Rev-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make sure that the comfirmation password is the same password in
+ password field and if its different a error message is display </t>
   </si>
 </sst>
 </file>
@@ -411,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,6 +459,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,18 +752,18 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -787,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -814,7 +822,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -853,19 +861,19 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -925,7 +933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1025,23 +1033,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8465B27E-4491-47FE-A86E-717BB384923D}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1079,7 @@
       </c>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1106,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1132,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1150,7 +1158,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -1193,28 +1201,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13">
-        <v>45767</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
+    <row r="7" spans="1:10">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="15"/>
@@ -1222,11 +1213,79 @@
       <c r="C8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="15"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="F9" s="14"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="55.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="57.6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="18">
+        <v>45767</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04412DB-B555-43B1-8DB9-048C8D6C6B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449A3C7F-904D-40EF-BABE-49E9B000C36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -101,7 +101,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -111,7 +111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,7 +130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -148,7 +148,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,7 +166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -193,7 +193,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -203,7 +203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -226,7 +226,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">CRS Naming Convention: </t>
@@ -235,7 +235,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
       </rPr>
       <t>naming should start from 000 for each item. so login and all other different requirements should begin with 000.</t>
@@ -253,7 +253,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">CRS Missing Requirements:  
@@ -263,7 +263,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
       </rPr>
       <t>1-Application will be Pc/Web Based only.
@@ -323,9 +323,6 @@
     <t>SRS_TravelAdvisor_webapplication</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
     <t xml:space="preserve">cconfimmation password is missed </t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   <si>
     <t xml:space="preserve">make sure that the comfirmation password is the same password in
  password field and if its different a error message is display </t>
+  </si>
+  <si>
+    <t>Registration</t>
   </si>
 </sst>
 </file>
@@ -344,7 +344,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,7 +352,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -365,13 +365,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,14 +457,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,18 +752,18 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="27.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8">
+    <row r="2" spans="1:10" ht="41.4">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -861,19 +861,19 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" customWidth="1"/>
+    <col min="3" max="3" width="33.69921875" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="27.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -912,10 +912,10 @@
       <c r="B2" s="5">
         <v>45757</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
@@ -940,10 +940,10 @@
       <c r="B3" s="5">
         <v>45757</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
@@ -968,10 +968,10 @@
       <c r="B4" s="5">
         <v>45758</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1035,21 +1035,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8465B27E-4491-47FE-A86E-717BB384923D}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="6" max="6" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.3984375" customWidth="1"/>
+    <col min="9" max="9" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="27.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8">
+    <row r="6" spans="1:10" ht="27.6">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -1201,13 +1201,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="14.4">
       <c r="A7" s="15"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="14.4">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -1222,20 +1222,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" customWidth="1"/>
+    <col min="7" max="7" width="55.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57.6">
+    <row r="1" spans="1:9" ht="41.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1264,27 +1264,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2">
+    <row r="2" spans="1:9" ht="27.6">
       <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="18">
+        <v>44</v>
+      </c>
+      <c r="B2" s="17">
         <v>45767</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Reviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intake 45\QA\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449A3C7F-904D-40EF-BABE-49E9B000C36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0715D7-5B9A-41E1-9CD2-AB7EDE512E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>Review ID</t>
   </si>
@@ -90,7 +90,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -101,7 +101,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -111,7 +111,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,7 +130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -148,7 +148,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,7 +166,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -193,7 +193,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -203,7 +203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -226,7 +226,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">CRS Naming Convention: </t>
@@ -235,7 +235,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>naming should start from 000 for each item. so login and all other different requirements should begin with 000.</t>
@@ -253,7 +253,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">CRS Missing Requirements:  
@@ -263,7 +263,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>1-Application will be Pc/Web Based only.
@@ -334,17 +334,32 @@
   </si>
   <si>
     <t>Registration</t>
+  </si>
+  <si>
+    <t>Rev-002</t>
+  </si>
+  <si>
+    <t>Abdulkarim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS-Login-11 and SRS-Login-12 are identical </t>
+  </si>
+  <si>
+    <t>Delete the duplication or correct it if you meant anything else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRS-Login-001 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,7 +367,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -365,13 +380,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,6 +394,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -752,18 +773,18 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="6" max="6" width="52.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -795,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="41.4">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -861,19 +882,19 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" customWidth="1"/>
-    <col min="3" max="3" width="33.69921875" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,17 +1060,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="52.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.3984375" customWidth="1"/>
-    <col min="9" max="9" width="14.296875" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1202,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="27.6">
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -1201,13 +1222,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
+    <row r="7" spans="1:10">
       <c r="A7" s="15"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -1220,22 +1241,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.09765625" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" customWidth="1"/>
-    <col min="7" max="7" width="55.796875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="55.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.4">
+    <row r="1" spans="1:9" ht="43.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.6">
+    <row r="2" spans="1:9" ht="43.2">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -1287,7 +1309,33 @@
         <v>45</v>
       </c>
     </row>
+    <row r="3" spans="1:9" ht="39" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="17">
+        <v>45768</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intake 45\QA\Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0715D7-5B9A-41E1-9CD2-AB7EDE512E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61173AFE-5C6E-45EF-A537-F2526DA5001B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>Review ID</t>
   </si>
@@ -348,7 +348,22 @@
     <t>Delete the duplication or correct it if you meant anything else.</t>
   </si>
   <si>
-    <t xml:space="preserve">CRS-Login-001 </t>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>SRS_Travel_Advisor_Web_Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS-Login-001 </t>
+  </si>
+  <si>
+    <t>Rev-003</t>
+  </si>
+  <si>
+    <t>Gallery</t>
+  </si>
+  <si>
+    <t>no gaps</t>
   </si>
 </sst>
 </file>
@@ -773,18 +788,18 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -816,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8">
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -843,7 +858,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -882,19 +897,19 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -954,7 +969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1060,17 +1075,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1142,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1217,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8">
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -1241,23 +1256,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -1307,6 +1323,12 @@
       </c>
       <c r="G2" s="14" t="s">
         <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="13">
+        <v>45767</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1">
@@ -1317,10 +1339,10 @@
         <v>45768</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>48</v>
@@ -1331,8 +1353,32 @@
       <c r="G3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="17">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="13">
+        <v>45769</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intake 45\QA\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61173AFE-5C6E-45EF-A537-F2526DA5001B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4ABC36-8590-4EDE-AAFB-A81ADAD9B2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
     <sheet name="CRS-REV" sheetId="3" r:id="rId2"/>
-    <sheet name="PMP_REV" sheetId="7" r:id="rId3"/>
-    <sheet name="SRS_REV" sheetId="8" r:id="rId4"/>
+    <sheet name="PMP-REV" sheetId="7" r:id="rId3"/>
+    <sheet name="SRS-REV" sheetId="8" r:id="rId4"/>
+    <sheet name="TC-REV" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
   <si>
     <t>Review ID</t>
   </si>
@@ -311,9 +312,6 @@
     <t>No gaps</t>
   </si>
   <si>
-    <t>Rev-005</t>
-  </si>
-  <si>
     <t>CRS_TravelAdvisor_webapplication</t>
   </si>
   <si>
@@ -324,9 +322,6 @@
   </si>
   <si>
     <t xml:space="preserve">cconfimmation password is missed </t>
-  </si>
-  <si>
-    <t>Rev-001</t>
   </si>
   <si>
     <t xml:space="preserve">make sure that the comfirmation password is the same password in
@@ -336,9 +331,6 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>Rev-002</t>
-  </si>
-  <si>
     <t>Abdulkarim</t>
   </si>
   <si>
@@ -354,23 +346,257 @@
     <t>SRS_Travel_Advisor_Web_Application</t>
   </si>
   <si>
-    <t xml:space="preserve">SRS-Login-001 </t>
-  </si>
-  <si>
-    <t>Rev-003</t>
-  </si>
-  <si>
     <t>Gallery</t>
   </si>
   <si>
     <t>no gaps</t>
+  </si>
+  <si>
+    <t>REV-005</t>
+  </si>
+  <si>
+    <t>TC_Travel_Advisor_Web_Application</t>
+  </si>
+  <si>
+    <t>some duplications and invalid test cases.</t>
+  </si>
+  <si>
+    <r>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC-Login-06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : precondition should be "User have a Registered Account"
+also should specify how many trials left.
+▪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TC-Login-12 :should be deleted </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>invalid test case (2 negative scenarios)
+▪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TC-Login-13 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>precondition should be "user must have a locked account for 10 minutes"
+▪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC-Login-13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : result should be redirection to home page as it's a successful login.
+▪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC-Login-15 should be deleted :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> will block the empty test cases, also not specified in requirements.
+▪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC-Login-16 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>should specify the length of the email from the requriments.
+▪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TC-Login-17 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>should specify the accepted special chars from the requriments.
+▪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC-Login-14 and TC-Login-1 are duplicated, delete 14.
+▪TC-Login-18 and TC-Login-8 are duplicated , delete 18.</t>
+    </r>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>SRS-Login-8 missing some information.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">should specify a message appearing to inform the user of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how many trials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> left for him before being blocked also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>specify the error message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+▪Specify the length of the valid email to be 255 characters.
+▪Specify the accepted special characters.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">POSTPONED </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +642,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +675,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -449,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,6 +746,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,21 +1036,21 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -831,7 +1082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -858,7 +1109,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -894,22 +1145,22 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -969,7 +1220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1072,20 +1323,20 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1393,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1217,18 +1468,18 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B6" s="13">
         <v>45752</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>38</v>
@@ -1256,24 +1507,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="43.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1302,30 +1554,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45">
+    <row r="2" spans="1:9" ht="43.2">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B2" s="17">
         <v>45767</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I2" s="13">
         <v>45767</v>
@@ -1333,55 +1585,159 @@
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B3" s="17">
         <v>45768</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="I3" s="17">
         <v>45769</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>54</v>
+      <c r="A4" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="13">
         <v>45769</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="93.6" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="17">
+        <v>45770</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>56</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="290.39999999999998" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45770</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intake 45\QA\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4ABC36-8590-4EDE-AAFB-A81ADAD9B2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF0C55E-618C-4CED-A90D-D69148BDF743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
   <si>
     <t>Review ID</t>
   </si>
@@ -312,6 +312,9 @@
     <t>No gaps</t>
   </si>
   <si>
+    <t>REV-005</t>
+  </si>
+  <si>
     <t>CRS_TravelAdvisor_webapplication</t>
   </si>
   <si>
@@ -319,6 +322,9 @@
   </si>
   <si>
     <t>SRS_TravelAdvisor_webapplication</t>
+  </si>
+  <si>
+    <t>Registration</t>
   </si>
   <si>
     <t xml:space="preserve">cconfimmation password is missed </t>
@@ -328,7 +334,13 @@
  password field and if its different a error message is display </t>
   </si>
   <si>
-    <t>Registration</t>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>SRS_Travel_Advisor_Web_Application</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
   <si>
     <t>Abdulkarim</t>
@@ -340,19 +352,105 @@
     <t>Delete the duplication or correct it if you meant anything else.</t>
   </si>
   <si>
-    <t xml:space="preserve">Done </t>
-  </si>
-  <si>
-    <t>SRS_Travel_Advisor_Web_Application</t>
-  </si>
-  <si>
     <t>Gallery</t>
   </si>
   <si>
     <t>no gaps</t>
   </si>
   <si>
-    <t>REV-005</t>
+    <t>SRS-Login-8 missing some information.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">should specify a message appearing to inform the user of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how many trials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> left for him before being blocked also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>specify the error message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+▪Specify the length of the valid email to be 255 characters.
+▪Specify the accepted special characters.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">POSTPONED </t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>SRS-Rate-01 is missing location of the rate option.</t>
+  </si>
+  <si>
+    <t>The rating should be visible in user's history</t>
+  </si>
+  <si>
+    <t>REV-006</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>REV-007</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
   <si>
     <t>TC_Travel_Advisor_Web_Application</t>
@@ -516,80 +614,6 @@
       <t>TC-Login-14 and TC-Login-1 are duplicated, delete 14.
 ▪TC-Login-18 and TC-Login-8 are duplicated , delete 18.</t>
     </r>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>SRS-Login-8 missing some information.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>▪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">should specify a message appearing to inform the user of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>how many trials</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> left for him before being blocked also </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>specify the error message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-▪Specify the length of the valid email to be 255 characters.
-▪Specify the accepted special characters.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTPONED </t>
   </si>
 </sst>
 </file>
@@ -735,9 +759,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,6 +773,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,18 +1063,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="28.9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8">
+    <row r="2" spans="1:10" ht="28.9">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1109,7 +1133,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1122,7 +1146,7 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1148,19 +1172,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="28.9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1199,10 +1223,10 @@
       <c r="B2" s="5">
         <v>45757</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1220,17 +1244,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5">
         <v>45757</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1255,10 +1279,10 @@
       <c r="B4" s="5">
         <v>45758</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1326,17 +1350,17 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="28.9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1417,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1468,18 +1492,18 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8">
+    <row r="6" spans="1:10" ht="28.9">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B6" s="13">
         <v>45752</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>38</v>
@@ -1507,25 +1531,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2">
+    <row r="1" spans="1:9" ht="43.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1554,30 +1578,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2">
+    <row r="2" spans="1:9" ht="43.15">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>45767</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" s="13">
         <v>45767</v>
@@ -1587,28 +1611,28 @@
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>45768</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="F3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>45769</v>
       </c>
     </row>
@@ -1620,42 +1644,106 @@
         <v>45769</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="93.6" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>45770</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="F5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="45.75">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45770</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="F6" s="14" t="s">
         <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="13">
+        <v>45770</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="13">
+        <v>42117</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1672,20 +1760,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="28.9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="290.39999999999998" customHeight="1">
+    <row r="2" spans="1:9" ht="290.45" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1722,17 +1810,17 @@
         <v>45770</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intake 45\QA\Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF0C55E-618C-4CED-A90D-D69148BDF743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E996DA-0A0E-4038-9586-16C507CA8DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
   <si>
     <t>Review ID</t>
   </si>
@@ -321,7 +321,73 @@
     <t>mohsen</t>
   </si>
   <si>
-    <t>SRS_TravelAdvisor_webapplication</t>
+    <t>REV-006</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Review Strategy section is missed.</t>
+  </si>
+  <si>
+    <t>Consider including a clear and concise outline of how the review process will be conducted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>REV-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Problem Resolution Management section is missed.</t>
+  </si>
+  <si>
+    <t>Identify the problem, when did it happen, who is involved and its status during project lifecycle.</t>
+  </si>
+  <si>
+    <t>REV-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Omar</t>
+  </si>
+  <si>
+    <t>Configuration Items List is missed.</t>
+  </si>
+  <si>
+    <t>Consider including Document name, Version, Link, Status.</t>
+  </si>
+  <si>
+    <t>REV-009</t>
+  </si>
+  <si>
+    <t>Change Management Section needs some editing.</t>
+  </si>
+  <si>
+    <t>Who approve the changed? Where to perform impact analysis?</t>
+  </si>
+  <si>
+    <t>REV-010</t>
+  </si>
+  <si>
+    <t>Naming convention needs some edits.</t>
+  </si>
+  <si>
+    <t>Please ensure that all files, names, and IDs follow a specific and standardized format along the project</t>
+  </si>
+  <si>
+    <t>REV-011</t>
+  </si>
+  <si>
+    <t>Change Request section is missed.</t>
+  </si>
+  <si>
+    <t>Consider including a Change Request section to document any changes made during the project and how they were handled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk Register section is missed. </t>
+  </si>
+  <si>
+    <t>editing to ensure all identified risks are clearly described, assessed with its impact , and updated with appropriate response plans and owners</t>
   </si>
   <si>
     <t>Registration</t>
@@ -332,12 +398,6 @@
   <si>
     <t xml:space="preserve">make sure that the comfirmation password is the same password in
  password field and if its different a error message is display </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done </t>
-  </si>
-  <si>
-    <t>SRS_Travel_Advisor_Web_Application</t>
   </si>
   <si>
     <t>Login</t>
@@ -441,13 +501,7 @@
     <t>The rating should be visible in user's history</t>
   </si>
   <si>
-    <t>REV-006</t>
-  </si>
-  <si>
     <t>Platform</t>
-  </si>
-  <si>
-    <t>REV-007</t>
   </si>
   <si>
     <t>Admin</t>
@@ -614,6 +668,18 @@
       <t>TC-Login-14 and TC-Login-1 are duplicated, delete 14.
 ▪TC-Login-18 and TC-Login-8 are duplicated , delete 18.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User Feature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking </t>
+  </si>
+  <si>
+    <t>Review Strategy</t>
+  </si>
+  <si>
+    <t>Mohsen</t>
   </si>
 </sst>
 </file>
@@ -718,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,15 +831,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,18 +1130,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.9">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.9">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1133,7 +1200,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1213,7 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1172,19 +1239,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.9">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1223,10 +1290,10 @@
       <c r="B2" s="5">
         <v>45757</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1244,17 +1311,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5">
         <v>45757</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1279,10 +1346,10 @@
       <c r="B4" s="5">
         <v>45758</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1344,23 +1411,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8465B27E-4491-47FE-A86E-717BB384923D}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.9">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1484,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1492,37 +1559,174 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.9">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="13">
-        <v>45752</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>38</v>
+      <c r="B6" s="16">
+        <v>45761</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="16">
+        <v>45761</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="21">
+        <v>45761</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="21">
+        <v>45761</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="13">
+        <v>45761</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="13">
+        <v>45761</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="13">
+        <v>45761</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1531,25 +1735,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.15">
+    <row r="1" spans="1:9" ht="43.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1578,172 +1782,243 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="43.2">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B3" s="16">
         <v>45767</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I3" s="13">
         <v>45767</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:9" ht="39" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B4" s="16">
         <v>45768</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I4" s="16">
         <v>45769</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B5" s="13">
         <v>45769</v>
       </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="93.6" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="93.6" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B6" s="16">
         <v>45770</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45.75">
-      <c r="A6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2">
+      <c r="A7" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="13">
-        <v>45770</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15">
-      <c r="A7" t="s">
-        <v>61</v>
       </c>
       <c r="B7" s="13">
         <v>45770</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="13">
+        <v>45770</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="B9" s="13">
         <v>42117</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="13">
+        <v>42118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="13">
+        <v>42118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="13">
+        <v>42118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1760,20 +2035,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.9">
+    <row r="1" spans="1:9" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +2077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="290.45" customHeight="1">
+    <row r="2" spans="1:9" ht="290.39999999999998" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1810,17 +2085,17 @@
         <v>45770</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E996DA-0A0E-4038-9586-16C507CA8DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D7D983-3158-43F4-BD11-7AADA236B917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
     <sheet name="CRS-REV" sheetId="3" r:id="rId2"/>
     <sheet name="PMP-REV" sheetId="7" r:id="rId3"/>
     <sheet name="SRS-REV" sheetId="8" r:id="rId4"/>
-    <sheet name="TC-REV" sheetId="9" r:id="rId5"/>
+    <sheet name="Design-REV" sheetId="10" r:id="rId5"/>
+    <sheet name="TC-REV" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="93">
   <si>
     <t>Review ID</t>
   </si>
@@ -680,6 +681,16 @@
   </si>
   <si>
     <t>Mohsen</t>
+  </si>
+  <si>
+    <t>Design/Wireframe</t>
+  </si>
+  <si>
+    <t>No Gaps</t>
+  </si>
+  <si>
+    <t>Mohsen
+abdelkereem</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2006,7 +2017,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="13">
-        <v>42118</v>
+        <v>45771</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -2028,6 +2039,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BE339-7DF6-4360-96CC-3CD562A9AB9A}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="57.6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="43.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13">
+        <v>45771</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
   <dimension ref="A1:I2"/>
   <sheetViews>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D7D983-3158-43F4-BD11-7AADA236B917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53B4F6-DDDB-40BF-8CDD-41C074B99B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="96">
   <si>
     <t>Review ID</t>
   </si>
@@ -691,6 +691,80 @@
   <si>
     <t>Mohsen
 abdelkereem</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC-REG-02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: This entry does not represent a valid test case. Kindly review and revise it to ensure it follows the appropriate test case structure.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC-REG-04 / TC-REG-05 / TC-REG-06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: In the description section of these test cases, consider replacing the phrase “is fields” with “empty” for improved clarity and grammatical accuracy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>General Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The current set of test cases does not fully address all potential corner cases. It is recommended to enhance coverage by including scenarios that test edge cases and boundary conditions.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -795,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,6 +928,15 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,18 +1224,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8">
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1211,7 +1294,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1250,19 +1333,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1428,17 +1511,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1578,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1716,7 +1799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8">
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1752,19 +1835,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1887,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="43.2">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1908,7 +1991,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2042,19 +2125,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BE339-7DF6-4360-96CC-3CD562A9AB9A}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57.6">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2177,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="43.2">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2118,26 +2201,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="290.39999999999998" customHeight="1">
+    <row r="2" spans="1:9" ht="290.45" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2189,7 +2272,130 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="25">
+        <v>45771</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="90">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="90">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="F12" s="14"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" s="23"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53B4F6-DDDB-40BF-8CDD-41C074B99B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C8B40E-97D3-44B8-87EB-90DACE7A7DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="104">
   <si>
     <t>Review ID</t>
   </si>
@@ -514,163 +514,6 @@
     <t>some duplications and invalid test cases.</t>
   </si>
   <si>
-    <r>
-      <t>▪</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC-Login-06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : precondition should be "User have a Registered Account"
-also should specify how many trials left.
-▪</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TC-Login-12 :should be deleted </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>invalid test case (2 negative scenarios)
-▪</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TC-Login-13 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>precondition should be "user must have a locked account for 10 minutes"
-▪</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC-Login-13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : result should be redirection to home page as it's a successful login.
-▪</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC-Login-15 should be deleted :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> will block the empty test cases, also not specified in requirements.
-▪</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC-Login-16 :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>should specify the length of the email from the requriments.
-▪</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TC-Login-17 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>should specify the accepted special chars from the requriments.
-▪</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC-Login-14 and TC-Login-1 are duplicated, delete 14.
-▪TC-Login-18 and TC-Login-8 are duplicated , delete 18.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">User Feature </t>
   </si>
   <si>
@@ -687,10 +530,6 @@
   </si>
   <si>
     <t>No Gaps</t>
-  </si>
-  <si>
-    <t>Mohsen
-abdelkereem</t>
   </si>
   <si>
     <r>
@@ -766,12 +605,44 @@
       <t>: The current set of test cases does not fully address all potential corner cases. It is recommended to enhance coverage by including scenarios that test edge cases and boundary conditions.</t>
     </r>
   </si>
+  <si>
+    <t>▪TC-Login-12 :should be deleted invalid test case (2 negative scenarios)</t>
+  </si>
+  <si>
+    <t>▪TC-Login-13 : precondition should be "user must have a locked account for 10 minutes"</t>
+  </si>
+  <si>
+    <t>▪TC-Login-13 : result should be redirection to home page as it's a successful login.</t>
+  </si>
+  <si>
+    <t>▪TC-Login-15 should be deleted : will block the empty test cases, also not specified in requirements.</t>
+  </si>
+  <si>
+    <t>▪TC-Login-16 :should specify the length of the email from the requriments.</t>
+  </si>
+  <si>
+    <t>▪TC-Login-17 : should specify the accepted special chars from the requriments.</t>
+  </si>
+  <si>
+    <t>▪TC-Login-14 and TC-Login-1 are duplicated, delete 14.</t>
+  </si>
+  <si>
+    <t>▪TC-Login-06 : precondition should be "User have a Registered Account"
+also should specify how many trials left.</t>
+  </si>
+  <si>
+    <t>Mohsen
+Abdulkarim</t>
+  </si>
+  <si>
+    <t>Done.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,13 +694,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -869,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,17 +791,21 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,18 +1092,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1294,7 +1162,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1333,19 +1201,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1384,10 +1252,10 @@
       <c r="B2" s="5">
         <v>45757</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1405,17 +1273,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5">
         <v>45757</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1440,10 +1308,10 @@
       <c r="B4" s="5">
         <v>45758</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1511,17 +1379,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1446,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30">
+    <row r="12" spans="1:10" ht="28.8">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1835,19 +1703,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="43.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1755,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="45">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1991,7 +1859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45">
+    <row r="7" spans="1:9" ht="43.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2066,7 +1934,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -2086,10 +1954,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
         <v>73</v>
@@ -2106,10 +1974,10 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
         <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
       </c>
       <c r="G12" t="s">
         <v>73</v>
@@ -2126,18 +1994,18 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="43.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2045,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="45">
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2185,13 +2053,13 @@
         <v>45771</v>
       </c>
       <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2201,26 +2069,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2249,152 +2117,269 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="290.45" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="24">
         <v>45770</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="62.4" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="96.6" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B10" s="24">
         <v>45771</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G10" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="86.4">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="86.4">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="90">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="F12" s="14"/>
-      <c r="G12" s="23"/>
-    </row>
     <row r="13" spans="1:9">
-      <c r="G13" s="23"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="G14" s="23"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="G15" s="23"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="7:7">
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="7:7">
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="7:7">
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="7:7">
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="7:7">
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="7:7">
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="7:7">
-      <c r="G30" s="23"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="14"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="6:7">
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="6:7">
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="6:7">
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="6:7">
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B3:B5"/>
+  <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="E2:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C8B40E-97D3-44B8-87EB-90DACE7A7DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51368A75-0AB8-4452-A383-39BE306D1914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
   <si>
     <t>Review ID</t>
   </si>
@@ -282,9 +282,6 @@
     <t>CRS_V1.2</t>
   </si>
   <si>
-    <t>Travel Advisor PMP</t>
-  </si>
-  <si>
     <t>Asmaa</t>
   </si>
   <si>
@@ -636,6 +633,18 @@
   </si>
   <si>
     <t>Done.</t>
+  </si>
+  <si>
+    <t>REV-012</t>
+  </si>
+  <si>
+    <t>PMP_Travel_Advisor_Web_Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing some information on the CIL section </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIL Artifacts should Include Test cases as well </t>
   </si>
 </sst>
 </file>
@@ -796,16 +805,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8465B27E-4491-47FE-A86E-717BB384923D}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1384,6 +1393,7 @@
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="113.44140625" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
@@ -1419,7 +1429,7 @@
       </c>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1427,16 +1437,16 @@
         <v>45757</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1454,16 +1464,16 @@
         <v>45757</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1472,7 +1482,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="28.8">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1480,16 +1490,16 @@
         <v>45757</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1498,21 +1508,21 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="13">
         <v>45757</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1521,176 +1531,197 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="16">
         <v>45761</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>29</v>
+      <c r="C6" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="16">
         <v>45761</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>29</v>
+      <c r="C7" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8">
+      <c r="A8" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="B8" s="21">
         <v>45761</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>29</v>
+      <c r="C8" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="21">
         <v>45761</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>29</v>
+      <c r="C9" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="13">
         <v>45761</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
+      <c r="C10" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="13">
         <v>45761</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
+      <c r="C11" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="13">
         <v>45761</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
+      <c r="C12" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="13">
+        <v>45772</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1699,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1763,22 +1794,22 @@
         <v>45767</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="13">
         <v>45767</v>
@@ -1795,19 +1826,19 @@
         <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="16">
         <v>45769</v>
@@ -1824,18 +1855,18 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="93.6" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="16">
         <v>45770</v>
@@ -1844,24 +1875,24 @@
         <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="F6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="13">
         <v>45770</v>
@@ -1870,21 +1901,21 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
         <v>77</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" t="s">
         <v>79</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="13">
         <v>45770</v>
@@ -1893,19 +1924,19 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="13">
         <v>42117</v>
@@ -1914,18 +1945,18 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="13">
         <v>42118</v>
@@ -1934,18 +1965,18 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="13">
         <v>42118</v>
@@ -1954,18 +1985,18 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="13">
         <v>45771</v>
@@ -1974,13 +2005,13 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
         <v>87</v>
       </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2053,13 +2084,13 @@
         <v>45771</v>
       </c>
       <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
         <v>89</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
@@ -2118,176 +2149,176 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="25">
         <v>45770</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>84</v>
-      </c>
       <c r="G2" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="62.4" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="62.4" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="96.6" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="25">
         <v>45771</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>65</v>
+      <c r="C10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="86.4">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.4">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="22" t="s">
+    <row r="12" spans="1:9" ht="86.4">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="25"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2368,18 +2399,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="E2:E9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="E2:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51368A75-0AB8-4452-A383-39BE306D1914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F46D46-E8CC-4648-9F5F-29D9FE501C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="107">
   <si>
     <t>Review ID</t>
   </si>
@@ -805,16 +805,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,18 +1101,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8">
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1210,19 +1210,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1384,22 +1384,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8465B27E-4491-47FE-A86E-717BB384923D}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="28.8">
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8">
+    <row r="4" spans="1:10" ht="45">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8">
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8">
+    <row r="6" spans="1:10" ht="45">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8">
+    <row r="7" spans="1:10" ht="45">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8">
+    <row r="8" spans="1:10" ht="45">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8">
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10" ht="45">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="45">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8">
+    <row r="12" spans="1:10" ht="45">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.8">
+    <row r="13" spans="1:10" ht="45">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -1734,19 +1734,19 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="43.2">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2028,15 +2028,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="28.8">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2102,24 +2102,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2148,21 +2148,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:9" ht="80.45" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>45770</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -2171,154 +2171,188 @@
       <c r="H2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="27"/>
+      <c r="I2" s="5">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="80.45" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="18" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="27"/>
+      <c r="I3" s="5">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="80.45" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="18" t="s">
         <v>94</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="27"/>
+      <c r="I4" s="5">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="80.45" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="18" t="s">
         <v>95</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="27"/>
+      <c r="I5" s="5">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="80.45" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="18" t="s">
         <v>96</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="62.4" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="27"/>
+      <c r="I6" s="5">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="62.45" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="18" t="s">
         <v>97</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5">
+        <v>45771</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="18" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5">
+        <v>45771</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="18" t="s">
         <v>99</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5">
+        <v>45771</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>45771</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="86.4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="H10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="13">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="H11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="13">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="90">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="22" t="s">
         <v>92</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="13">
+        <v>45772</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2399,18 +2433,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="E2:E9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F46D46-E8CC-4648-9F5F-29D9FE501C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D108F9-1806-470F-A41E-835931EA9B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="105">
   <si>
     <t>Review ID</t>
   </si>
@@ -491,12 +491,6 @@
   </si>
   <si>
     <t>Caroline</t>
-  </si>
-  <si>
-    <t>SRS-Rate-01 is missing location of the rate option.</t>
-  </si>
-  <si>
-    <t>The rating should be visible in user's history</t>
   </si>
   <si>
     <t>Platform</t>
@@ -805,16 +799,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,18 +1095,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1165,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1210,19 +1204,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1388,18 +1382,18 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1423,7 @@
       </c>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1431,7 @@
         <v>45757</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
@@ -1456,7 +1450,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1464,7 +1458,7 @@
         <v>45757</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -1482,7 +1476,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" spans="1:10" ht="28.8">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1490,7 +1484,7 @@
         <v>45757</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1508,7 +1502,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45">
+    <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1516,7 +1510,7 @@
         <v>45757</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -1531,7 +1525,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45">
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1539,7 +1533,7 @@
         <v>45761</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
@@ -1556,7 +1550,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="45">
+    <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1564,7 +1558,7 @@
         <v>45761</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
@@ -1581,7 +1575,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="45">
+    <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -1589,7 +1583,7 @@
         <v>45761</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="15" t="s">
@@ -1606,7 +1600,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
@@ -1614,7 +1608,7 @@
         <v>45761</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="15" t="s">
@@ -1631,7 +1625,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:10" ht="45">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1639,7 +1633,7 @@
         <v>45761</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>50</v>
@@ -1654,7 +1648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45">
+    <row r="11" spans="1:10" ht="28.8">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1662,7 +1656,7 @@
         <v>45761</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -1677,7 +1671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45">
+    <row r="12" spans="1:10" ht="28.8">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1685,7 +1679,7 @@
         <v>45761</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
@@ -1700,24 +1694,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:10" ht="28.8">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="13">
         <v>45772</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1730,23 +1724,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="43.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1780,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="45">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1890,7 +1884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1901,16 +1895,14 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1918,19 +1910,18 @@
         <v>41</v>
       </c>
       <c r="B8" s="13">
-        <v>45770</v>
-      </c>
-      <c r="C8" t="s">
+        <v>42117</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1939,16 +1930,16 @@
         <v>46</v>
       </c>
       <c r="B9" s="13">
-        <v>42117</v>
-      </c>
-      <c r="C9" s="15" t="s">
+        <v>42118</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>72</v>
@@ -1965,10 +1956,10 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
         <v>72</v>
@@ -1979,16 +1970,16 @@
         <v>53</v>
       </c>
       <c r="B11" s="13">
-        <v>42118</v>
+        <v>45771</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
         <v>85</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
       </c>
       <c r="G11" t="s">
         <v>72</v>
@@ -1999,16 +1990,16 @@
         <v>56</v>
       </c>
       <c r="B12" s="13">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>72</v>
@@ -2028,15 +2019,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="43.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2067,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2084,13 +2075,13 @@
         <v>45771</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2102,24 +2093,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2148,208 +2139,208 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="25">
         <v>45770</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>83</v>
+      <c r="F2" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="I2" s="5">
         <v>45771</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+    <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I3" s="5">
         <v>45771</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+    <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I4" s="5">
         <v>45771</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+    <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I5" s="5">
         <v>45771</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+    <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I6" s="5">
         <v>45771</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="62.45" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
+    <row r="7" spans="1:9" ht="62.4" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I7" s="5">
         <v>45771</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I8" s="5">
         <v>45771</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I9" s="5">
         <v>45771</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="25">
         <v>45771</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="C10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I10" s="13">
         <v>45772</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="90">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+    <row r="11" spans="1:9" ht="86.4">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I11" s="13">
         <v>45772</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="90">
-      <c r="A12" s="25"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+    <row r="12" spans="1:9" ht="86.4">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I12" s="13">
         <v>45772</v>
@@ -2433,18 +2424,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="E2:E9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="E2:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D108F9-1806-470F-A41E-835931EA9B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E35AD-7EB4-4548-8012-ACA964125F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
   <si>
     <t>Review ID</t>
   </si>
@@ -639,6 +639,46 @@
   </si>
   <si>
     <t xml:space="preserve">CIL Artifacts should Include Test cases as well </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caroline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some cases aren't covered in User testcases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deviation in the expected results of some test cases. </t>
+  </si>
+  <si>
+    <t>Missing some test data and duplicated description.</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC-Admin03 / TC-Admin04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to SRS an approtiate error message should appear when admin tries to update user's comment or data.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>NO Gaps</t>
   </si>
 </sst>
 </file>
@@ -698,7 +738,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +763,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -736,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,15 +845,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,7 +1441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8465B27E-4491-47FE-A86E-717BB384923D}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1724,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B61E80-8CF2-4CF9-8DE5-DA38EB52B03D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2093,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2140,20 +2203,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>45770</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -2167,12 +2230,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="27"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="18" t="s">
         <v>91</v>
       </c>
@@ -2184,12 +2247,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="27"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="18" t="s">
         <v>92</v>
       </c>
@@ -2201,12 +2264,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="27"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="18" t="s">
         <v>93</v>
       </c>
@@ -2218,12 +2281,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="27"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="18" t="s">
         <v>94</v>
       </c>
@@ -2235,12 +2298,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="62.4" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="18" t="s">
         <v>95</v>
       </c>
@@ -2252,12 +2315,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="18" t="s">
         <v>96</v>
       </c>
@@ -2269,12 +2332,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="18" t="s">
         <v>97</v>
       </c>
@@ -2286,20 +2349,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>45771</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2313,12 +2376,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="22" t="s">
         <v>89</v>
       </c>
@@ -2330,12 +2393,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="22" t="s">
         <v>90</v>
       </c>
@@ -2347,13 +2410,78 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="G15" s="22"/>
+      <c r="A13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="31">
+        <v>45772</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="86.4">
+      <c r="A14" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="31">
+        <v>45772</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8">
+      <c r="A15" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="31">
+        <v>45772</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9">
       <c r="G16" s="22"/>
@@ -2424,18 +2552,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="E2:E9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E35AD-7EB4-4548-8012-ACA964125F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D206F4-44C0-47EB-9408-BB92729465C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
   <si>
     <t>Review ID</t>
   </si>
@@ -644,13 +644,7 @@
     <t xml:space="preserve"> Caroline</t>
   </si>
   <si>
-    <t xml:space="preserve"> Some cases aren't covered in User testcases.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deviation in the expected results of some test cases. </t>
-  </si>
-  <si>
-    <t>Missing some test data and duplicated description.</t>
   </si>
   <si>
     <r>
@@ -782,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -842,6 +836,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -855,23 +858,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1318,10 +1304,10 @@
       <c r="B2" s="5">
         <v>45757</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1346,10 +1332,10 @@
       <c r="B3" s="5">
         <v>45757</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1374,10 +1360,10 @@
       <c r="B4" s="5">
         <v>45758</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1441,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8465B27E-4491-47FE-A86E-717BB384923D}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1775,6 +1761,12 @@
       </c>
       <c r="G13" s="14" t="s">
         <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="13">
+        <v>45772</v>
       </c>
     </row>
   </sheetData>
@@ -2156,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2203,20 +2195,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="27">
         <v>45770</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="29" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -2230,12 +2222,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="18" t="s">
         <v>91</v>
       </c>
@@ -2247,12 +2239,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
         <v>92</v>
       </c>
@@ -2264,12 +2256,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="18" t="s">
         <v>93</v>
       </c>
@@ -2281,12 +2273,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="18" t="s">
         <v>94</v>
       </c>
@@ -2298,12 +2290,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="62.4" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="18" t="s">
         <v>95</v>
       </c>
@@ -2315,12 +2307,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="18" t="s">
         <v>96</v>
       </c>
@@ -2332,12 +2324,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="18" t="s">
         <v>97</v>
       </c>
@@ -2349,20 +2341,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="27">
         <v>45771</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2376,12 +2368,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.4">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="22" t="s">
         <v>89</v>
       </c>
@@ -2393,12 +2385,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="25"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="22" t="s">
         <v>90</v>
       </c>
@@ -2410,78 +2402,71 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="29" t="s">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="13">
         <v>45772</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
+      <c r="E13" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="86.4">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="13">
+        <v>45772</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="G14" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="13">
+        <v>45772</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="1:9" ht="86.4">
-      <c r="A14" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="31">
-        <v>45772</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8">
-      <c r="A15" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="31">
-        <v>45772</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9">
       <c r="G16" s="22"/>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D206F4-44C0-47EB-9408-BB92729465C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CB664D-2F30-40DC-8CA0-C5A1C168F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="111">
   <si>
     <t>Review ID</t>
   </si>
@@ -673,6 +673,12 @@
   </si>
   <si>
     <t>NO Gaps</t>
+  </si>
+  <si>
+    <t>REV-013</t>
+  </si>
+  <si>
+    <t>Critical Risk</t>
   </si>
 </sst>
 </file>
@@ -1425,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8465B27E-4491-47FE-A86E-717BB384923D}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1767,6 +1773,26 @@
       </c>
       <c r="I13" s="13">
         <v>45772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="13">
+        <v>45772</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2148,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2469,7 +2495,24 @@
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="G16" s="22"/>
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="13">
+        <v>45772</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="6:7">
       <c r="G17" s="22"/>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CB664D-2F30-40DC-8CA0-C5A1C168F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF2EF79-B5BD-4ACB-A79F-A49579A91FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="3564" windowWidth="17280" windowHeight="8040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="111">
   <si>
     <t>Review ID</t>
   </si>
@@ -854,16 +854,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2174,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2221,20 +2221,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <v>45770</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -2248,12 +2248,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="18" t="s">
         <v>91</v>
       </c>
@@ -2265,12 +2265,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="18" t="s">
         <v>92</v>
       </c>
@@ -2282,12 +2282,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="18" t="s">
         <v>93</v>
       </c>
@@ -2299,12 +2299,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="18" t="s">
         <v>94</v>
       </c>
@@ -2316,12 +2316,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="62.4" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="18" t="s">
         <v>95</v>
       </c>
@@ -2333,12 +2333,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="18" t="s">
         <v>96</v>
       </c>
@@ -2350,12 +2350,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="18" t="s">
         <v>97</v>
       </c>
@@ -2367,20 +2367,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <v>45771</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2394,12 +2394,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="22" t="s">
         <v>89</v>
       </c>
@@ -2411,12 +2411,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="22" t="s">
         <v>90</v>
       </c>
@@ -2514,53 +2514,70 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="6:7">
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="13">
+        <v>45772</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="1:7">
       <c r="F19" s="14"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="1:7">
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="1:7">
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="1:7">
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="1:7">
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="1:7">
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="1:7">
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="6:7">
+    <row r="26" spans="1:7">
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="6:7">
+    <row r="27" spans="1:7">
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="6:7">
+    <row r="28" spans="1:7">
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="6:7">
+    <row r="29" spans="1:7">
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="1:7">
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="1:7">
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="6:7">
+    <row r="32" spans="1:7">
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="7:7">
@@ -2580,18 +2597,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="E2:E9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="E2:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF2EF79-B5BD-4ACB-A79F-A49579A91FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AFEC87-7E78-4B34-952E-7FC1B6C812C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="3564" windowWidth="17280" windowHeight="8040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="113">
   <si>
     <t>Review ID</t>
   </si>
@@ -679,6 +679,12 @@
   </si>
   <si>
     <t>Critical Risk</t>
+  </si>
+  <si>
+    <t>FIrebaseDesign</t>
+  </si>
+  <si>
+    <t>Admin_softwareDesign</t>
   </si>
 </sst>
 </file>
@@ -854,16 +860,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2094,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BE339-7DF6-4360-96CC-3CD562A9AB9A}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2165,6 +2171,40 @@
         <v>87</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13">
+        <v>45779</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45779</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2174,7 +2214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2221,20 +2261,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>45770</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -2248,12 +2288,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="18" t="s">
         <v>91</v>
       </c>
@@ -2265,12 +2305,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
         <v>92</v>
       </c>
@@ -2282,12 +2322,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="30"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="18" t="s">
         <v>93</v>
       </c>
@@ -2299,12 +2339,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="30"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="18" t="s">
         <v>94</v>
       </c>
@@ -2316,12 +2356,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="62.4" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="18" t="s">
         <v>95</v>
       </c>
@@ -2333,12 +2373,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="18" t="s">
         <v>96</v>
       </c>
@@ -2350,12 +2390,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="18" t="s">
         <v>97</v>
       </c>
@@ -2367,20 +2407,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>45771</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2394,12 +2434,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="22" t="s">
         <v>89</v>
       </c>
@@ -2411,12 +2451,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="22" t="s">
         <v>90</v>
       </c>
@@ -2597,18 +2637,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="E2:E9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AFEC87-7E78-4B34-952E-7FC1B6C812C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4509C69-C1B6-49DC-B637-4E40A31E2D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="114">
   <si>
     <t>Review ID</t>
   </si>
@@ -685,6 +685,9 @@
   </si>
   <si>
     <t>Admin_softwareDesign</t>
+  </si>
+  <si>
+    <t>Registration_sofwareDesign.drawio</t>
   </si>
 </sst>
 </file>
@@ -860,16 +863,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2100,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BE339-7DF6-4360-96CC-3CD562A9AB9A}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2161,7 +2164,7 @@
       <c r="B3" s="13">
         <v>45771</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -2178,7 +2181,7 @@
       <c r="B4" s="13">
         <v>45779</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E4" t="s">
@@ -2188,14 +2191,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="13">
         <v>45779</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>112</v>
       </c>
       <c r="E5" t="s">
@@ -2205,7 +2208,109 @@
         <v>87</v>
       </c>
     </row>
+    <row r="6" spans="1:9" ht="28.8">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45780</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="14"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2261,20 +2366,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <v>45770</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -2288,12 +2393,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="18" t="s">
         <v>91</v>
       </c>
@@ -2305,12 +2410,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="18" t="s">
         <v>92</v>
       </c>
@@ -2322,12 +2427,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="18" t="s">
         <v>93</v>
       </c>
@@ -2339,12 +2444,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="18" t="s">
         <v>94</v>
       </c>
@@ -2356,12 +2461,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="62.4" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="18" t="s">
         <v>95</v>
       </c>
@@ -2373,12 +2478,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="18" t="s">
         <v>96</v>
       </c>
@@ -2390,12 +2495,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="18" t="s">
         <v>97</v>
       </c>
@@ -2407,20 +2512,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <v>45771</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2434,12 +2539,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="22" t="s">
         <v>89</v>
       </c>
@@ -2451,12 +2556,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="22" t="s">
         <v>90</v>
       </c>
@@ -2637,18 +2742,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="E2:E9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="E2:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4509C69-C1B6-49DC-B637-4E40A31E2D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785DCB23-DA85-456C-BF12-9FF80EE0CC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="SRS-REV" sheetId="8" r:id="rId4"/>
     <sheet name="Design-REV" sheetId="10" r:id="rId5"/>
     <sheet name="TC-REV" sheetId="9" r:id="rId6"/>
+    <sheet name="FrontEnd" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="117">
   <si>
     <t>Review ID</t>
   </si>
@@ -688,6 +689,15 @@
   </si>
   <si>
     <t>Registration_sofwareDesign.drawio</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Profile</t>
   </si>
 </sst>
 </file>
@@ -863,16 +873,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,18 +1169,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8">
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1229,7 +1239,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1268,19 +1278,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1446,18 +1456,18 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1497,7 @@
       </c>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="28.8">
+    <row r="2" spans="1:10" ht="45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1514,7 +1524,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +1550,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8">
+    <row r="4" spans="1:10" ht="45">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1566,7 +1576,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8">
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1589,7 +1599,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8">
+    <row r="6" spans="1:10" ht="45">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1624,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8">
+    <row r="7" spans="1:10" ht="45">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1639,7 +1649,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8">
+    <row r="8" spans="1:10" ht="45">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -1664,7 +1674,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8">
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
@@ -1689,7 +1699,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
+    <row r="10" spans="1:10" ht="45">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1712,7 +1722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="45">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1735,7 +1745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8">
+    <row r="12" spans="1:10" ht="45">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1758,7 +1768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.8">
+    <row r="13" spans="1:10" ht="45">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1784,7 +1794,7 @@
         <v>45772</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8">
+    <row r="14" spans="1:10" ht="45">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -1818,19 +1828,19 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1880,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="43.2">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2105,19 +2115,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BE339-7DF6-4360-96CC-3CD562A9AB9A}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2157,7 +2167,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="28.8">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2191,7 +2201,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2208,7 +2218,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2319,24 +2329,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC92043-E45E-4C4D-B5F2-76143A5CD63B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2365,21 +2375,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:9" ht="80.45" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>45770</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -2392,13 +2402,13 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="30"/>
+    <row r="3" spans="1:9" ht="80.45" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="18" t="s">
         <v>91</v>
       </c>
@@ -2409,13 +2419,13 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="30"/>
+    <row r="4" spans="1:9" ht="80.45" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
         <v>92</v>
       </c>
@@ -2426,13 +2436,13 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="30"/>
+    <row r="5" spans="1:9" ht="80.45" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="18" t="s">
         <v>93</v>
       </c>
@@ -2443,13 +2453,13 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="30"/>
+    <row r="6" spans="1:9" ht="80.45" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="18" t="s">
         <v>94</v>
       </c>
@@ -2460,13 +2470,13 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="62.4" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="30"/>
+    <row r="7" spans="1:9" ht="62.45" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="18" t="s">
         <v>95</v>
       </c>
@@ -2478,12 +2488,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="18" t="s">
         <v>96</v>
       </c>
@@ -2495,12 +2505,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="18" t="s">
         <v>97</v>
       </c>
@@ -2512,20 +2522,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>45771</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2538,13 +2548,13 @@
         <v>45772</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+    <row r="11" spans="1:9" ht="90">
+      <c r="A11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="22" t="s">
         <v>89</v>
       </c>
@@ -2555,13 +2565,13 @@
         <v>45772</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+    <row r="12" spans="1:9" ht="90">
+      <c r="A12" s="28"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="22" t="s">
         <v>90</v>
       </c>
@@ -2594,7 +2604,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="86.4">
+    <row r="14" spans="1:9" ht="90">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2742,19 +2752,154 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="E2:E9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237B27CD-AD84-422B-B221-DD0CDDEA1E05}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="60">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45905</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13">
+        <v>45905</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="13">
+        <v>45905</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45905</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45905</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785DCB23-DA85-456C-BF12-9FF80EE0CC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F00AD9-FB64-445C-A552-459CF0051FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Design-REV" sheetId="10" r:id="rId5"/>
     <sheet name="TC-REV" sheetId="9" r:id="rId6"/>
     <sheet name="FrontEnd" sheetId="11" r:id="rId7"/>
+    <sheet name="Backend" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="123">
   <si>
     <t>Review ID</t>
   </si>
@@ -698,6 +699,24 @@
   </si>
   <si>
     <t>Profile</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>caroline</t>
+  </si>
+  <si>
+    <t>abdelkrim</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
 </sst>
 </file>
@@ -873,16 +892,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2376,20 +2395,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <v>45770</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -2403,12 +2422,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="18" t="s">
         <v>91</v>
       </c>
@@ -2420,12 +2439,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="18" t="s">
         <v>92</v>
       </c>
@@ -2437,12 +2456,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="18" t="s">
         <v>93</v>
       </c>
@@ -2454,12 +2473,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="18" t="s">
         <v>94</v>
       </c>
@@ -2471,12 +2490,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="62.45" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="18" t="s">
         <v>95</v>
       </c>
@@ -2488,12 +2507,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="18" t="s">
         <v>96</v>
       </c>
@@ -2505,12 +2524,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="18" t="s">
         <v>97</v>
       </c>
@@ -2522,20 +2541,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <v>45771</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2549,12 +2568,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="90">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="22" t="s">
         <v>89</v>
       </c>
@@ -2566,12 +2585,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="90">
-      <c r="A12" s="28"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="22" t="s">
         <v>90</v>
       </c>
@@ -2752,18 +2771,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="E2:E9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="E2:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2773,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237B27CD-AD84-422B-B221-DD0CDDEA1E05}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2897,6 +2916,122 @@
       <c r="A7" t="s">
         <v>41</v>
       </c>
+      <c r="B7" s="13">
+        <v>45905</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF97DF76-3550-45C9-9B3C-059A0F837A69}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="60">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45905</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13">
+        <v>45905</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="13">
+        <v>45905</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45905</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F00AD9-FB64-445C-A552-459CF0051FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA8EF13-DD97-4274-8324-B58C757E8BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
   <si>
     <t>Review ID</t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t>home</t>
+  </si>
+  <si>
+    <t>14/5/2025</t>
   </si>
 </sst>
 </file>
@@ -892,16 +895,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,18 +1191,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1261,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1297,19 +1300,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1475,18 +1478,18 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1519,7 @@
       </c>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1543,7 +1546,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" spans="1:10" ht="28.8">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45">
+    <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45">
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1643,7 +1646,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="45">
+    <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1668,7 +1671,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="45">
+    <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -1693,7 +1696,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
@@ -1718,7 +1721,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:10" ht="45">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45">
+    <row r="11" spans="1:10" ht="28.8">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45">
+    <row r="12" spans="1:10" ht="28.8">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:10" ht="28.8">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>45772</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:10" ht="28.8">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -1847,19 +1850,19 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="43.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +1902,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="45">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2138,15 +2141,15 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="43.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2186,7 +2189,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2352,20 +2355,20 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2394,21 +2397,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>45770</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -2421,13 +2424,13 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="30"/>
+    <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="18" t="s">
         <v>91</v>
       </c>
@@ -2438,13 +2441,13 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="30"/>
+    <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="18" t="s">
         <v>92</v>
       </c>
@@ -2455,13 +2458,13 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="30"/>
+    <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="18" t="s">
         <v>93</v>
       </c>
@@ -2472,13 +2475,13 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="80.45" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="30"/>
+    <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="18" t="s">
         <v>94</v>
       </c>
@@ -2489,13 +2492,13 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="62.45" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="30"/>
+    <row r="7" spans="1:9" ht="62.4" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="18" t="s">
         <v>95</v>
       </c>
@@ -2507,12 +2510,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="18" t="s">
         <v>96</v>
       </c>
@@ -2524,12 +2527,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="18" t="s">
         <v>97</v>
       </c>
@@ -2541,20 +2544,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>45771</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2567,13 +2570,13 @@
         <v>45772</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="90">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+    <row r="11" spans="1:9" ht="86.4">
+      <c r="A11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="22" t="s">
         <v>89</v>
       </c>
@@ -2584,13 +2587,13 @@
         <v>45772</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="90">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+    <row r="12" spans="1:9" ht="86.4">
+      <c r="A12" s="28"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="22" t="s">
         <v>90</v>
       </c>
@@ -2623,7 +2626,7 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="90">
+    <row r="14" spans="1:9" ht="86.4">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2771,18 +2774,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="E2:E9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2796,9 +2799,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="60">
+    <row r="1" spans="1:9" ht="57.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2928,15 +2931,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF97DF76-3550-45C9-9B3C-059A0F837A69}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="60">
+    <row r="1" spans="1:9" ht="57.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3030,6 +3033,23 @@
         <v>119</v>
       </c>
       <c r="G5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Reviews/RT_Travel_Advisor_Web_Application.xlsx
+++ b/Reviews/RT_Travel_Advisor_Web_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Documents\GitHub\Travel-Advisor-Web-Application\Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA8EF13-DD97-4274-8324-B58C757E8BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077FB9CE-1889-49F9-A4A7-F924260E6CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="125">
   <si>
     <t>Review ID</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>14/5/2025</t>
+  </si>
+  <si>
+    <t>16/5/2025</t>
   </si>
 </sst>
 </file>
@@ -895,16 +898,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2398,20 +2401,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="28">
         <v>45770</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -2425,12 +2428,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="18" t="s">
         <v>91</v>
       </c>
@@ -2442,12 +2445,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="18" t="s">
         <v>92</v>
       </c>
@@ -2459,12 +2462,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="18" t="s">
         <v>93</v>
       </c>
@@ -2476,12 +2479,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="80.400000000000006" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="18" t="s">
         <v>94</v>
       </c>
@@ -2493,12 +2496,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="62.4" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="18" t="s">
         <v>95</v>
       </c>
@@ -2510,12 +2513,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="18" t="s">
         <v>96</v>
       </c>
@@ -2527,12 +2530,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="96.6" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="18" t="s">
         <v>97</v>
       </c>
@@ -2544,20 +2547,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <v>45771</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2571,12 +2574,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="86.4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="22" t="s">
         <v>89</v>
       </c>
@@ -2588,12 +2591,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="22" t="s">
         <v>90</v>
       </c>
@@ -2774,18 +2777,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="E2:E9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="E2:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2931,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF97DF76-3550-45C9-9B3C-059A0F837A69}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3053,6 +3056,23 @@
         <v>72</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
